--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2016.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2016.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.019*"exchange" + 0.014*"yes" + 0.013*"foreign" + 0.011*"international" + 0.009*"monetary" + 0.009*"currency" + 0.009*"resident" + 0.009*"fund" + 0.009*"transaction" + 0.009*"bank"</t>
-  </si>
-  <si>
-    <t>0.025*"yes" + 0.021*"exchange" + 0.018*"foreign" + 0.012*"monetary" + 0.011*"control" + 0.011*"resident" + 0.011*"fund" + 0.010*"international" + 0.010*"bank" + 0.010*"transaction"</t>
-  </si>
-  <si>
-    <t>0.008*"foreign" + 0.008*"exchange" + 0.006*"yes" + 0.004*"bank" + 0.004*"fund" + 0.004*"limit" + 0.004*"international" + 0.004*"resident" + 0.004*"control" + 0.003*"currency"</t>
-  </si>
-  <si>
-    <t>0.030*"exchange" + 0.022*"foreign" + 0.021*"yes" + 0.015*"fund" + 0.012*"bank" + 0.011*"currency" + 0.011*"may" + 0.011*"investment" + 0.011*"account" + 0.011*"transaction"</t>
-  </si>
-  <si>
-    <t>0.025*"exchange" + 0.023*"foreign" + 0.020*"yes" + 0.016*"bank" + 0.013*"fund" + 0.011*"currency" + 0.011*"transaction" + 0.010*"control" + 0.010*"nonresident" + 0.010*"requirement"</t>
+    <t>0.088*"fund" + 0.079*"exchange" + 0.064*"monetary" + 0.062*"international" + 0.041*"restriction" + 0.035*"report" + 0.030*"arrangement" + 0.028*"annual" + 0.024*"regulation" + 0.021*"asset"</t>
+  </si>
+  <si>
+    <t>0.044*"limit" + 0.035*"approval" + 0.024*"investment" + 0.016*"hold" + 0.013*"portfolio" + 0.013*"person" + 0.013*"require" + 0.013*"certain" + 0.012*"prior" + 0.012*"abroad"</t>
+  </si>
+  <si>
+    <t>0.039*"nonresident" + 0.036*"security" + 0.035*"resident" + 0.030*"issue" + 0.030*"purchase" + 0.021*"abroad" + 0.020*"sale" + 0.016*"effective" + 0.014*"financial" + 0.014*"locally"</t>
+  </si>
+  <si>
+    <t>0.127*"yes" + 0.052*"control" + 0.036*"transaction" + 0.029*"instrument" + 0.023*"capital" + 0.023*"requirement" + 0.020*"legal" + 0.019*"payment" + 0.019*"transfer" + 0.017*"exchange"</t>
+  </si>
+  <si>
+    <t>0.070*"foreign" + 0.044*"exchange" + 0.032*"currency" + 0.029*"bank" + 0.023*"account" + 0.023*"may" + 0.017*"import" + 0.013*"transaction" + 0.012*"market" + 0.011*"rate"</t>
   </si>
 </sst>
 </file>
